--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C896CA9-1540-4CB6-A59F-AFD1F5CBB30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FECF99-588C-41D6-B1DA-6008EC2891A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -425,13 +425,13 @@
     <t>10.75.58.66</t>
   </si>
   <si>
-    <t>sn414638044_3U_15I.cal</t>
-  </si>
-  <si>
     <t>IDM-E</t>
   </si>
   <si>
     <t>IDC-DAU-66</t>
+  </si>
+  <si>
+    <t>3U_13I.cal</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,13 +781,13 @@
         <v>132</v>
       </c>
       <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FECF99-588C-41D6-B1DA-6008EC2891A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33019B-E20E-440D-B28E-C2EAA1A4E595}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
   <si>
     <t>Channel</t>
   </si>
@@ -411,12 +411,6 @@
   </si>
   <si>
     <t>DeviceName</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_3</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_3</t>
   </si>
   <si>
     <t>sssss</t>
@@ -778,16 +772,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +795,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1527,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C66883-42FC-4092-84F1-D94807FD0D8B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,41 +1772,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9">
         <v>-1</v>
       </c>
     </row>
@@ -1827,7 +1805,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
